--- a/DRE/cap05-Definicion_Topologia_Usuarios/IPT_ACRM_DRE_Cap05_Usuarios_150423.xlsx
+++ b/DRE/cap05-Definicion_Topologia_Usuarios/IPT_ACRM_DRE_Cap05_Usuarios_150423.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DRE\cap05-Definicion_Topologia_Usuarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\Ingeteam\DRE\cap05-Definicion_Topologia_Usuarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8085" tabRatio="786" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8085" tabRatio="786" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="KAM - RM - HQM" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="132">
   <si>
     <t>10% de su tiempo - (4hrs / semanales)</t>
   </si>
@@ -836,6 +836,10 @@
   </si>
   <si>
     <t>Desarrollar las tareas administrativas/comerciales del área/dpto. Dar soporte en las áreas de negocio a los Dptos.de Ingeniería, I+D, comercial y SAT.</t>
+  </si>
+  <si>
+    <t>Estimated Workload 
+(CRM interaction time)</t>
   </si>
 </sst>
 </file>
@@ -931,7 +935,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1000,11 +1004,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1020,12 +1044,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1060,9 +1078,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1071,6 +1086,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1378,37 +1408,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="45.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="45.85546875" style="4"/>
+    <col min="1" max="1" width="49.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="45.85546875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1482,21 +1513,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>109</v>
       </c>
@@ -1510,7 +1541,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>110</v>
       </c>
@@ -1528,17 +1559,17 @@
       <c r="A11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>114</v>
       </c>
@@ -1552,7 +1583,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>113</v>
       </c>
@@ -1580,7 +1611,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -1595,6 +1626,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1605,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,16 +1651,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1634,7 +1668,7 @@
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1642,7 +1676,7 @@
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1650,7 +1684,7 @@
       <c r="A5" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1658,7 +1692,7 @@
       <c r="A6" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1666,7 +1700,7 @@
       <c r="A7" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1674,7 +1708,7 @@
       <c r="A8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1690,7 +1724,7 @@
       <c r="A10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1698,7 +1732,7 @@
       <c r="A11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1706,7 +1740,7 @@
       <c r="A12" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1714,7 +1748,7 @@
       <c r="A13" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1722,7 +1756,7 @@
       <c r="A14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1730,11 +1764,11 @@
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
+      <c r="B15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1750,7 +1784,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:B15"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,16 +1794,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1777,7 +1811,7 @@
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1785,7 +1819,7 @@
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1793,7 +1827,7 @@
       <c r="A5" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1801,7 +1835,7 @@
       <c r="A6" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1809,7 +1843,7 @@
       <c r="A7" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1817,7 +1851,7 @@
       <c r="A8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1825,7 +1859,7 @@
       <c r="A9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1833,7 +1867,7 @@
       <c r="A10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1841,7 +1875,7 @@
       <c r="A11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1849,7 +1883,7 @@
       <c r="A12" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1857,7 +1891,7 @@
       <c r="A13" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1865,7 +1899,7 @@
       <c r="A14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1873,7 +1907,7 @@
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1890,92 +1924,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="B2:D11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="12"/>
-    <col min="2" max="2" width="33.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="12"/>
+    <col min="1" max="1" width="11.42578125" style="10"/>
+    <col min="2" max="2" width="33.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="17" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1989,9 +2021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:B15"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2001,16 +2031,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2058,7 +2088,7 @@
       <c r="A8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2082,7 +2112,7 @@
       <c r="A11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2132,9 +2162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:B15"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2144,10 +2172,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -2201,7 +2229,7 @@
       <c r="A8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2225,7 +2253,7 @@
       <c r="A11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2275,28 +2303,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="78.85546875" style="12" customWidth="1"/>
-    <col min="3" max="16384" width="11.42578125" style="12"/>
+    <col min="1" max="1" width="40.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="78.85546875" style="10" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2360,13 +2386,13 @@
       <c r="A10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2388,7 +2414,7 @@
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>90</v>
@@ -2416,9 +2442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D17"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2426,31 +2450,31 @@
     <col min="2" max="2" width="40" style="4" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" style="4" customWidth="1"/>
     <col min="4" max="4" width="40" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="12"/>
+    <col min="5" max="5" width="14" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="7"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2528,13 +2552,13 @@
       <c r="A8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2551,7 +2575,7 @@
       <c r="D9" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2568,7 +2592,7 @@
       <c r="D10" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2576,13 +2600,13 @@
       <c r="A11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2656,9 +2680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:B15"/>
-    </sheetView>
+    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2668,16 +2690,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2749,7 +2771,7 @@
       <c r="A11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2799,9 +2821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:B15"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2811,16 +2831,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2892,7 +2912,7 @@
       <c r="A11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2942,7 +2962,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:B15"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2954,16 +2974,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2998,7 +3018,7 @@
       <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -3012,7 +3032,7 @@
       <c r="A8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3036,7 +3056,7 @@
       <c r="A11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3073,7 +3093,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3091,9 +3111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="A1:B15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3103,16 +3121,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3120,7 +3138,7 @@
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3128,7 +3146,7 @@
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3136,7 +3154,7 @@
       <c r="A5" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3144,7 +3162,7 @@
       <c r="A6" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3152,7 +3170,7 @@
       <c r="A7" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3160,7 +3178,7 @@
       <c r="A8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3168,7 +3186,7 @@
       <c r="A9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3176,7 +3194,7 @@
       <c r="A10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3184,7 +3202,7 @@
       <c r="A11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3192,7 +3210,7 @@
       <c r="A12" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3200,7 +3218,7 @@
       <c r="A13" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3208,7 +3226,7 @@
       <c r="A14" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3216,11 +3234,11 @@
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
+      <c r="B15" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/DRE/cap05-Definicion_Topologia_Usuarios/IPT_ACRM_DRE_Cap05_Usuarios_150423.xlsx
+++ b/DRE/cap05-Definicion_Topologia_Usuarios/IPT_ACRM_DRE_Cap05_Usuarios_150423.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\Ingeteam\DRE\cap05-Definicion_Topologia_Usuarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DRE\cap05-Definicion_Topologia_Usuarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1640,7 +1640,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,7 +2021,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
